--- a/Application/Input/sampling_method_input_rmse_example.xlsx
+++ b/Application/Input/sampling_method_input_rmse_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/glance_simulation/stats/Active-Sampling/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomiyang/Documents/GitHub/SubmittedActiveSamplingforTechnometrics/Henrik GP/ActiveSampling/Application/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_651BBA5BBE066B266B0F33A7AB7DEBD752AA9F66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74EF49FD-4EE5-4CA8-BA4F-9BA352FD937F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3863806A-33BF-D249-8AEA-1F462CE1612E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>sim_order</t>
   </si>
@@ -63,9 +63,6 @@
     <t>impact speed reduction</t>
   </si>
   <si>
-    <t>naive</t>
-  </si>
-  <si>
     <t>crash avoidance</t>
   </si>
   <si>
@@ -81,7 +78,7 @@
     <t>severity sampling</t>
   </si>
   <si>
-    <t>minimising anticipated variance</t>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -117,12 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,9 +137,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +177,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -287,7 +283,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,184 +433,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK8"/>
+  <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5546875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="31.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.109375" style="1" customWidth="1"/>
-    <col min="7" max="1024" width="8.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="31.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.1640625" style="1" customWidth="1"/>
+    <col min="7" max="1024" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6 1025:1025" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6 1025:1025" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6 1025:1025" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6 1025:1025" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6 1025:1025" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
+      <c r="AMK4" s="1"/>
     </row>
-    <row r="5" spans="1:6 1025:1025" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="AMK5" s="1"/>
     </row>
-    <row r="6" spans="1:6 1025:1025" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AMK6" s="1"/>
-    </row>
-    <row r="7" spans="1:6 1025:1025" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AMK7" s="1"/>
-    </row>
-    <row r="8" spans="1:6 1025:1025" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AMK8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Application/Input/sampling_method_input_rmse_example.xlsx
+++ b/Application/Input/sampling_method_input_rmse_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomiyang/Documents/GitHub/SubmittedActiveSamplingforTechnometrics/Henrik GP/ActiveSampling/Application/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomiyang/Documents/GitHub/Check reproducibility/ActiveSampling/Application/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3863806A-33BF-D249-8AEA-1F462CE1612E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA98C16-7285-7340-B4AD-18B98A29B6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45280" yWindow="6820" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>sim_order</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>leverage sampling</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK6"/>
+  <dimension ref="A1:AMK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -572,6 +575,27 @@
       </c>
       <c r="AMK6" s="1"/>
     </row>
+    <row r="7" spans="1:6 1025:1025" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AMK7" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
